--- a/biology/Zoologie/Antechinomys_laniger/Antechinomys_laniger.xlsx
+++ b/biology/Zoologie/Antechinomys_laniger/Antechinomys_laniger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antechinomys laniger est une espèce de marsupial de la famille des Dasyuridae endémique d'Australie. 
 Il s’accommode d’habitats divers - terrains boisés, régions broussailleuses semi-désertiques-; cette gerboise marsupiale chasse les petits invertébrés la nuit. Pour bondir, elle prend appui sur ses pattes postérieures à quatre doigts et retombe sur ses pattes de devant. Ses oreilles sont grandes et ses yeux cernés de noir ; son museau est pointu, son corps trapu, son pelage fauve ou brun sur le dos et blanc sur le ventre.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte mesure de 17 à 20 cm de long pour un poids de 20 à 30 g. Le mâle mesure généralement 1,5 cm de plus et pèse 10 g de plus que la femelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte mesure de 17 à 20 cm de long pour un poids de 20 à 30 g. Le mâle mesure généralement 1,5 cm de plus et pèse 10 g de plus que la femelle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit principalement d'araignées, de blattes et de grillons[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement d'araignées, de blattes et de grillons.
 </t>
         </is>
       </c>
